--- a/BurnDown MapKit.xlsx
+++ b/BurnDown MapKit.xlsx
@@ -460,22 +460,22 @@
                   <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>55.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2139466808"/>
-        <c:axId val="2139469800"/>
+        <c:axId val="2115138824"/>
+        <c:axId val="2115142568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2139466808"/>
+        <c:axId val="2115138824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139469800"/>
+        <c:crossAx val="2115142568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139469800"/>
+        <c:axId val="2115142568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139466808"/>
+        <c:crossAx val="2115138824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -944,36 +944,35 @@
         <v>2</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -992,36 +991,35 @@
         <v>1.5</v>
       </c>
       <c r="E4" s="7">
-        <f t="shared" ref="E4:L4" si="2">D4</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" ref="E4:L4" si="2">E4</f>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1088,36 +1086,35 @@
         <v>2</v>
       </c>
       <c r="E6" s="7">
-        <f t="shared" ref="E6:L6" si="6">D6</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="6"/>
-        <v>2</v>
+        <f t="shared" ref="E6:L6" si="6">E6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1136,36 +1133,35 @@
         <v>2</v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" ref="E7:L7" si="8">D7</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f t="shared" ref="E7:L7" si="8">E7</f>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1184,36 +1180,35 @@
         <v>1.5</v>
       </c>
       <c r="E8" s="7">
-        <f t="shared" ref="E8:L8" si="10">D8</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="10"/>
-        <v>1.5</v>
+        <f t="shared" ref="E8:L8" si="10">E8</f>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="10"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1616,36 +1611,35 @@
         <v>5</v>
       </c>
       <c r="E17" s="7">
-        <f t="shared" ref="E17:L17" si="28">D17</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="28"/>
-        <v>5</v>
+        <f t="shared" ref="E17:L17" si="28">E17</f>
+        <v>0</v>
       </c>
       <c r="G17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2099,27 +2093,27 @@
       </c>
       <c r="E28" s="15">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F28" s="28">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G28" s="15">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H28" s="28">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I28" s="15">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J28" s="27">
         <f t="shared" si="48"/>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>

--- a/BurnDown MapKit.xlsx
+++ b/BurnDown MapKit.xlsx
@@ -475,7 +475,7 @@
                   <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115138824"/>
-        <c:axId val="2115142568"/>
+        <c:axId val="2122817512"/>
+        <c:axId val="2122823592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115138824"/>
+        <c:axId val="2122817512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115142568"/>
+        <c:crossAx val="2122823592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115142568"/>
+        <c:axId val="2122823592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115138824"/>
+        <c:crossAx val="2122817512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="E4:L4" si="2">E4</f>
+        <f t="shared" ref="F4:L4" si="2">E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -1058,16 +1058,15 @@
         <v>3</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1089,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="E6:L6" si="6">E6</f>
+        <f t="shared" ref="F6:L6" si="6">E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -1136,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="E7:L7" si="8">E7</f>
+        <f t="shared" ref="F7:L7" si="8">E7</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
@@ -1183,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="E8:L8" si="10">E8</f>
+        <f t="shared" ref="F8:L8" si="10">E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="7">
@@ -1247,16 +1246,15 @@
         <v>2</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1614,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ref="E17:L17" si="28">E17</f>
+        <f t="shared" ref="F17:L17" si="28">E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -1678,16 +1676,15 @@
         <v>6</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2113,7 +2110,7 @@
       </c>
       <c r="J28" s="27">
         <f t="shared" si="48"/>
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>

--- a/BurnDown MapKit.xlsx
+++ b/BurnDown MapKit.xlsx
@@ -475,7 +475,7 @@
                   <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.0</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122817512"/>
-        <c:axId val="2122823592"/>
+        <c:axId val="2115138824"/>
+        <c:axId val="2115142568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122817512"/>
+        <c:axId val="2115138824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122823592"/>
+        <c:crossAx val="2115142568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122823592"/>
+        <c:axId val="2115142568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122817512"/>
+        <c:crossAx val="2115138824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="F4:L4" si="2">E4</f>
+        <f t="shared" ref="E4:L4" si="2">E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -1058,15 +1058,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1088,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="F6:L6" si="6">E6</f>
+        <f t="shared" ref="E6:L6" si="6">E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -1135,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:L7" si="8">E7</f>
+        <f t="shared" ref="E7:L7" si="8">E7</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
@@ -1182,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="F8:L8" si="10">E8</f>
+        <f t="shared" ref="E8:L8" si="10">E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="7">
@@ -1246,15 +1247,16 @@
         <v>2</v>
       </c>
       <c r="J9" s="7">
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1612,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ref="F17:L17" si="28">E17</f>
+        <f t="shared" ref="E17:L17" si="28">E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -1676,15 +1678,16 @@
         <v>6</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <f t="shared" si="30"/>
+        <v>6</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2110,7 +2113,7 @@
       </c>
       <c r="J28" s="27">
         <f t="shared" si="48"/>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>

--- a/BurnDown MapKit.xlsx
+++ b/BurnDown MapKit.xlsx
@@ -475,7 +475,7 @@
                   <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,11 +492,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115138824"/>
-        <c:axId val="2115142568"/>
+        <c:axId val="2078237768"/>
+        <c:axId val="2078241192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115138824"/>
+        <c:axId val="2078237768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -505,7 +505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115142568"/>
+        <c:crossAx val="2078241192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -513,7 +513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115142568"/>
+        <c:axId val="2078241192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115138824"/>
+        <c:crossAx val="2078237768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" zoomScalePageLayoutView="235" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" ref="E4:L4" si="2">E4</f>
+        <f t="shared" ref="F4:L4" si="2">E4</f>
         <v>0</v>
       </c>
       <c r="G4" s="7">
@@ -1089,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" ref="E6:L6" si="6">E6</f>
+        <f t="shared" ref="F6:L6" si="6">E6</f>
         <v>0</v>
       </c>
       <c r="G6" s="7">
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="E7:L7" si="8">E7</f>
+        <f t="shared" ref="F7:L7" si="8">E7</f>
         <v>0</v>
       </c>
       <c r="G7" s="7">
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" ref="E8:L8" si="10">E8</f>
+        <f t="shared" ref="F8:L8" si="10">E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="7">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" ref="E17:L17" si="28">E17</f>
+        <f t="shared" ref="F17:L17" si="28">E17</f>
         <v>0</v>
       </c>
       <c r="G17" s="7">
@@ -1678,16 +1678,15 @@
         <v>6</v>
       </c>
       <c r="J18" s="7">
-        <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="30"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2113,7 +2112,7 @@
       </c>
       <c r="J28" s="27">
         <f t="shared" si="48"/>
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="K28" s="15">
         <v>0</v>
